--- a/tocheck/temptaxizeprob.xlsx
+++ b/tocheck/temptaxizeprob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,33 +518,28 @@
           <t>parsingQualityScore</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>namematchedintaxize</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solanum nudum</t>
+          <t>Bidens boquetiensis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solanum nudum</t>
+          <t>Bidens boquetiensis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Solanum nudum</t>
+          <t>Bidens reptans</t>
         </is>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -563,7 +558,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4Y3HV</t>
+          <t>LS4R</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -572,16 +567,16 @@
         </is>
       </c>
       <c r="K2">
-        <v>9.412152479890549</v>
+        <v>9.411799753388401</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7d977327-3dbf-5535-86e3-ec13ec8af358</t>
+          <t>9ef9de0c-ece9-53f3-a5a9-e013da7a53d1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Solanum nudum Humb. &amp; Bonpl. ex Dunal</t>
+          <t>Bidens boquetiensis Roseman</t>
         </is>
       </c>
       <c r="N2">
@@ -589,22 +584,22 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Solanum nudum</t>
+          <t>Bidens boquetiensis</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4Y3HV</t>
+          <t>LSHJ</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7d977327-3dbf-5535-86e3-ec13ec8af358</t>
+          <t>e3dced21-fd82-5c64-bb12-108926e04030</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Solanum nudum Humb. &amp; Bonpl. ex Dunal</t>
+          <t>Bidens reptans (L.) G.Don</t>
         </is>
       </c>
       <c r="S2">
@@ -612,16 +607,16 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Solanum nudum</t>
+          <t>Bidens reptans</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="V2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -650,29 +645,21 @@
         <v>0.14285715</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bidens boquetiensis</t>
+          <t>Citharexylum mocinnoi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bidens boquetiensis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bidens reptans</t>
+          <t>Citharexylum mocinnoi</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -683,12 +670,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Catalogue of Life</t>
+          <t>Tropicos</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -698,25 +685,25 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LS4R</t>
+          <t>33702460</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="K3">
-        <v>9.411799753388401</v>
+        <v>9.4110934397838</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9ef9de0c-ece9-53f3-a5a9-e013da7a53d1</t>
+          <t>672db087-4f80-5358-9368-83e2f8c7cc60</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bidens boquetiensis Roseman</t>
+          <t>Citharexylum mocinnoi D. Don</t>
         </is>
       </c>
       <c r="N3">
@@ -724,39 +711,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Bidens boquetiensis</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>LSHJ</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>e3dced21-fd82-5c64-bb12-108926e04030</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Bidens reptans (L.) G.Don</t>
+          <t>Citharexylum mocinnoi</t>
         </is>
       </c>
       <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Bidens reptans</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="V3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -779,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.6666666999999999</v>
       </c>
       <c r="AD3">
         <v>0.14285715</v>
@@ -788,42 +755,34 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brugmansia candida</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brugmansia candida</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Brugmansia candida</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Catalogue of Life</t>
+          <t>Tropicos</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -833,25 +792,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NFCS</t>
+          <t>20400383</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="K4">
-        <v>9.412152479890549</v>
+        <v>9.4110934397838</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2f5c3575-d2d3-5324-99a0-b392857f8285</t>
+          <t>d8ea3e55-4644-502b-9530-fd1676171639</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Brugmansia × candida Pers.</t>
+          <t>Guarea grandifolia DC.</t>
         </is>
       </c>
       <c r="N4">
@@ -859,35 +818,15 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Brugmansia × candida</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NFCS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2f5c3575-d2d3-5324-99a0-b392857f8285</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Brugmansia × candida Pers.</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Brugmansia × candida</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="V4" t="b">
@@ -914,30 +853,32 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.6666666999999999</v>
       </c>
       <c r="AD4">
         <v>0.14285715</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Ilex fortunensis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Ilex fortunensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ilex hahnii</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -948,40 +889,40 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EOL</t>
+          <t>Catalogue of Life</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AutoCurated</t>
+          <t>Curated</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>bare-name-52199289</t>
+          <t>3PFF6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="K5">
-        <v>9.41038597559656</v>
+        <v>9.411799753388401</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2096e998-a4ab-5c87-a04c-02d958020c20</t>
+          <t>4dbc73d1-8cac-5f4d-96bc-126a4b384de7</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Ilex fortunensis W.J.Hahn</t>
         </is>
       </c>
       <c r="N5">
@@ -989,19 +930,39 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Citharexylum mocinnoi</t>
+          <t>Ilex fortunensis</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>6N6WJ</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>7d105c20-ec64-5b57-8408-ff2d847e803d</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Ilex hahnii Doweld</t>
         </is>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Ilex hahnii</t>
+        </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="V5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1024,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.33333334</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>0.14285715</v>
@@ -1033,33 +994,30 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Appunia seibertii</t>
         </is>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1078,7 +1036,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>VMN6</t>
+          <t>44DMS</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1087,16 +1045,16 @@
         </is>
       </c>
       <c r="K6">
-        <v>9.412152479890549</v>
+        <v>9.411799753388401</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>dbf391b0-639b-5ad4-99ef-1f8b9a61c871</t>
+          <t>67da8617-b56b-5d0d-8254-7da3f24e298c</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Citrus × aurantium L.</t>
+          <t>Morinda seibertii (Standl.) Steyerm.</t>
         </is>
       </c>
       <c r="N6">
@@ -1104,22 +1062,22 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Citrus × aurantium</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>VMN6</t>
+          <t>FWLX</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>dbf391b0-639b-5ad4-99ef-1f8b9a61c871</t>
+          <t>8619fd64-5d2c-56ff-8f36-053de2fe2d22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Citrus × aurantium L.</t>
+          <t>Appunia seibertii Standl.</t>
         </is>
       </c>
       <c r="S6">
@@ -1127,16 +1085,16 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Citrus × aurantium</t>
+          <t>Appunia seibertii</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="V6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1165,24 +1123,26 @@
         <v>0.14285715</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Prunus fortunensis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Prunus fortunensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Prunus annularis</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -1193,40 +1153,40 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EOL</t>
+          <t>Catalogue of Life</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AutoCurated</t>
+          <t>Curated</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>bare-name-49906169</t>
+          <t>6VZZ3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="K7">
-        <v>9.41038597559656</v>
+        <v>9.411799753388401</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>52043e60-0fe3-5d6a-8559-65b1f416c2b5</t>
+          <t>81fdbc6c-ef0f-5c49-821b-f05a1f4c7109</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Prunus fortunensis McPherson</t>
         </is>
       </c>
       <c r="N7">
@@ -1234,19 +1194,39 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Prunus fortunensis</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>4N8NJ</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>bb85eccd-1657-5241-b739-e0b5eeae3de3</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Prunus annularis Koehne</t>
         </is>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Prunus annularis</t>
+        </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Synonym</t>
         </is>
       </c>
       <c r="V7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1269,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.33333334</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>0.14285715</v>
@@ -1278,26 +1258,23 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ilex hahnii</t>
+          <t>Ravenia spectabilis spectabilis</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -1323,7 +1300,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3PFF6</t>
+          <t>9YF45</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1336,12 +1313,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4dbc73d1-8cac-5f4d-96bc-126a4b384de7</t>
+          <t>11d69e55-178b-5db2-8da5-5c23be915118</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis W.J.Hahn</t>
+          <t>Ravenia rosea Lebas</t>
         </is>
       </c>
       <c r="N8">
@@ -1349,30 +1326,30 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Ilex fortunensis</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>6N6WJ</t>
+          <t>5KVC2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7d105c20-ec64-5b57-8408-ff2d847e803d</t>
+          <t>e53db1fe-d7e0-5102-824e-2684f6aec78f</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Ilex hahnii Doweld</t>
+          <t>Ravenia spectabilis subsp. spectabilis</t>
         </is>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Ilex hahnii</t>
+          <t>Ravenia spectabilis subsp. spectabilis</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1413,26 +1390,23 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Sechium panamense</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Sechium panamense</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Appunia seibertii</t>
+          <t>Frantzia panamensis</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -1458,7 +1432,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>44DMS</t>
+          <t>7WWHB</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1471,12 +1445,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>67da8617-b56b-5d0d-8254-7da3f24e298c</t>
+          <t>a8773547-46ac-5f01-ac73-21154a3e70f1</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Morinda seibertii (Standl.) Steyerm.</t>
+          <t>Sechium panamense (Wunderlin) Lira &amp; F.Chiang</t>
         </is>
       </c>
       <c r="N9">
@@ -1484,22 +1458,22 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Sechium panamense</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>FWLX</t>
+          <t>7VQFL</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8619fd64-5d2c-56ff-8f36-053de2fe2d22</t>
+          <t>e12c7171-58a1-5717-838f-b179a98a216b</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Appunia seibertii Standl.</t>
+          <t>Frantzia panamensis Wunderlin</t>
         </is>
       </c>
       <c r="S9">
@@ -1507,7 +1481,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Appunia seibertii</t>
+          <t>Frantzia panamensis</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1548,26 +1522,23 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis</t>
+          <t>Sechium pittieri</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis</t>
+          <t>Sechium pittieri</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Prunus annularis</t>
+          <t>Frantzia pittieri</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -1593,7 +1564,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6VZZ3</t>
+          <t>7WWHC</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1606,12 +1577,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>81fdbc6c-ef0f-5c49-821b-f05a1f4c7109</t>
+          <t>0a5f241e-0c0b-5008-ad1b-0f8861ba84c2</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis McPherson</t>
+          <t>Sechium pittieri (Cogn.) C.Jeffrey</t>
         </is>
       </c>
       <c r="N10">
@@ -1619,22 +1590,22 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Prunus fortunensis</t>
+          <t>Sechium pittieri</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4N8NJ</t>
+          <t>7VQFM</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>bb85eccd-1657-5241-b739-e0b5eeae3de3</t>
+          <t>ff5dc987-4f26-51b5-ae2b-53d6cdb3fef6</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Prunus annularis Koehne</t>
+          <t>Frantzia pittieri (Cogn.) Pittier</t>
         </is>
       </c>
       <c r="S10">
@@ -1642,7 +1613,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Prunus annularis</t>
+          <t>Frantzia pittieri</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1683,26 +1654,23 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Sechium venosum</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Sechium venosum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis spectabilis</t>
+          <t>Frantzia venosa</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -1728,7 +1696,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9YF45</t>
+          <t>7WWHG</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1741,12 +1709,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11d69e55-178b-5db2-8da5-5c23be915118</t>
+          <t>b9d9ed20-1bff-5861-95ac-f73f72eb0acc</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Ravenia rosea Lebas</t>
+          <t>Sechium venosum (L.D.Gómez) Lira &amp; F.Chiang</t>
         </is>
       </c>
       <c r="N11">
@@ -1754,30 +1722,30 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Sechium venosum</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>5KVC2</t>
+          <t>7VQFQ</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>e53db1fe-d7e0-5102-824e-2684f6aec78f</t>
+          <t>eaf03619-238f-5077-846d-190301d3a87e</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis subsp. spectabilis</t>
+          <t>Frantzia venosa L.D.Gómez</t>
         </is>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis subsp. spectabilis</t>
+          <t>Frantzia venosa</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1818,26 +1786,23 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -1863,7 +1828,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4SCVL</t>
+          <t>VMN6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1876,12 +1841,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>43af5d8b-962a-5ec7-b1dc-f19127b9ca34</t>
+          <t>dbf391b0-639b-5ad4-99ef-1f8b9a61c871</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Rhizophora × harrisonii Leechm.</t>
+          <t>Citrus × aurantium L.</t>
         </is>
       </c>
       <c r="N12">
@@ -1889,22 +1854,22 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Rhizophora × harrisonii</t>
+          <t>Citrus × aurantium</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4SCVL</t>
+          <t>VMN6</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43af5d8b-962a-5ec7-b1dc-f19127b9ca34</t>
+          <t>dbf391b0-639b-5ad4-99ef-1f8b9a61c871</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Rhizophora × harrisonii Leechm.</t>
+          <t>Citrus × aurantium L.</t>
         </is>
       </c>
       <c r="S12">
@@ -1912,7 +1877,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Rhizophora × harrisonii</t>
+          <t>Citrus × aurantium</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1953,26 +1918,23 @@
         <v>1</v>
       </c>
       <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -1998,7 +1960,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8SLBS</t>
+          <t>4SCVL</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2011,12 +1973,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3913d317-9c4c-517d-bb0d-9c0620489717</t>
+          <t>43af5d8b-962a-5ec7-b1dc-f19127b9ca34</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes (Hemsl.) Morillo &amp; Mora</t>
+          <t>Rhizophora × harrisonii Leechm.</t>
         </is>
       </c>
       <c r="N13">
@@ -2024,22 +1986,22 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Rhizophora × harrisonii</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>8SLBS</t>
+          <t>4SCVL</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3913d317-9c4c-517d-bb0d-9c0620489717</t>
+          <t>43af5d8b-962a-5ec7-b1dc-f19127b9ca34</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes (Hemsl.) Morillo &amp; Mora</t>
+          <t>Rhizophora × harrisonii Leechm.</t>
         </is>
       </c>
       <c r="S13">
@@ -2047,7 +2009,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Ruehssia crassipes</t>
+          <t>Rhizophora × harrisonii</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2088,26 +2050,23 @@
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -2133,7 +2092,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8SKXJ</t>
+          <t>8SLBS</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2146,12 +2105,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>b40afe9e-09f2-5718-9fd1-da54903c8dce</t>
+          <t>3913d317-9c4c-517d-bb0d-9c0620489717</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri (Spellman) Morillo &amp; Mora</t>
+          <t>Ruehssia crassipes (Hemsl.) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="N14">
@@ -2159,22 +2118,22 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>8SKXJ</t>
+          <t>8SLBS</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>b40afe9e-09f2-5718-9fd1-da54903c8dce</t>
+          <t>3913d317-9c4c-517d-bb0d-9c0620489717</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri (Spellman) Morillo &amp; Mora</t>
+          <t>Ruehssia crassipes (Hemsl.) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="S14">
@@ -2182,7 +2141,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Ruehssia dressleri</t>
+          <t>Ruehssia crassipes</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2223,26 +2182,23 @@
         <v>1</v>
       </c>
       <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -2268,7 +2224,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8SLK5</t>
+          <t>8SKXJ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2281,12 +2237,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>94e1c4cd-bc37-535f-bb49-70698ac93f82</t>
+          <t>b40afe9e-09f2-5718-9fd1-da54903c8dce</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana (W.Rothe) Morillo &amp; Mora</t>
+          <t>Ruehssia dressleri (Spellman) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="N15">
@@ -2294,22 +2250,22 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>8SLK5</t>
+          <t>8SKXJ</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>94e1c4cd-bc37-535f-bb49-70698ac93f82</t>
+          <t>b40afe9e-09f2-5718-9fd1-da54903c8dce</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana (W.Rothe) Morillo &amp; Mora</t>
+          <t>Ruehssia dressleri (Spellman) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="S15">
@@ -2317,7 +2273,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Ruehssia engleriana</t>
+          <t>Ruehssia dressleri</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2358,33 +2314,30 @@
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sechium panamense</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sechium panamense</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Frantzia panamensis</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2403,7 +2356,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7WWHB</t>
+          <t>8SLK5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2412,16 +2365,16 @@
         </is>
       </c>
       <c r="K16">
-        <v>9.411799753388401</v>
+        <v>9.412152479890549</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>a8773547-46ac-5f01-ac73-21154a3e70f1</t>
+          <t>94e1c4cd-bc37-535f-bb49-70698ac93f82</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Sechium panamense (Wunderlin) Lira &amp; F.Chiang</t>
+          <t>Ruehssia engleriana (W.Rothe) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="N16">
@@ -2429,22 +2382,22 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Sechium panamense</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>7VQFL</t>
+          <t>8SLK5</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>e12c7171-58a1-5717-838f-b179a98a216b</t>
+          <t>94e1c4cd-bc37-535f-bb49-70698ac93f82</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Frantzia panamensis Wunderlin</t>
+          <t>Ruehssia engleriana (W.Rothe) Morillo &amp; Mora</t>
         </is>
       </c>
       <c r="S16">
@@ -2452,16 +2405,16 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Frantzia panamensis</t>
+          <t>Ruehssia engleriana</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2490,36 +2443,33 @@
         <v>0.14285715</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sechium pittieri</t>
+          <t>Solanum nudum</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sechium pittieri</t>
+          <t>Solanum nudum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Frantzia pittieri</t>
+          <t>Solanum nudum</t>
         </is>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2538,7 +2488,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7WWHC</t>
+          <t>4Y3HV</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2547,16 +2497,16 @@
         </is>
       </c>
       <c r="K17">
-        <v>9.411799753388401</v>
+        <v>9.412152479890549</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0a5f241e-0c0b-5008-ad1b-0f8861ba84c2</t>
+          <t>7d977327-3dbf-5535-86e3-ec13ec8af358</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Sechium pittieri (Cogn.) C.Jeffrey</t>
+          <t>Solanum nudum Humb. &amp; Bonpl. ex Dunal</t>
         </is>
       </c>
       <c r="N17">
@@ -2564,22 +2514,22 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Sechium pittieri</t>
+          <t>Solanum nudum</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>7VQFM</t>
+          <t>4Y3HV</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ff5dc987-4f26-51b5-ae2b-53d6cdb3fef6</t>
+          <t>7d977327-3dbf-5535-86e3-ec13ec8af358</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Frantzia pittieri (Cogn.) Pittier</t>
+          <t>Solanum nudum Humb. &amp; Bonpl. ex Dunal</t>
         </is>
       </c>
       <c r="S17">
@@ -2587,16 +2537,16 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Frantzia pittieri</t>
+          <t>Solanum nudum</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="V17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2625,36 +2575,33 @@
         <v>0.14285715</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sechium venosum</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sechium venosum</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Frantzia venosa</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2673,7 +2620,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7WWHG</t>
+          <t>7F9VG</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2682,16 +2629,16 @@
         </is>
       </c>
       <c r="K18">
-        <v>9.411799753388401</v>
+        <v>9.412152479890549</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>b9d9ed20-1bff-5861-95ac-f73f72eb0acc</t>
+          <t>174dfe0e-9741-5aa3-bd9e-f38bd59e39f7</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Sechium venosum (L.D.Gómez) Lira &amp; F.Chiang</t>
+          <t>Vailia anomala (Brandegee) W.D.Stevens</t>
         </is>
       </c>
       <c r="N18">
@@ -2699,22 +2646,22 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Sechium venosum</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>7VQFQ</t>
+          <t>7F9VG</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>eaf03619-238f-5077-846d-190301d3a87e</t>
+          <t>174dfe0e-9741-5aa3-bd9e-f38bd59e39f7</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Frantzia venosa L.D.Gómez</t>
+          <t>Vailia anomala (Brandegee) W.D.Stevens</t>
         </is>
       </c>
       <c r="S18">
@@ -2722,16 +2669,16 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Frantzia venosa</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Synonym</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2760,147 +2707,9 @@
         <v>0.14285715</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Catalogue of Life</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Curated</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>7F9VG</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-      <c r="K19">
-        <v>9.412152479890549</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>174dfe0e-9741-5aa3-bd9e-f38bd59e39f7</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Vailia anomala (Brandegee) W.D.Stevens</t>
-        </is>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>7F9VG</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>174dfe0e-9741-5aa3-bd9e-f38bd59e39f7</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Vailia anomala (Brandegee) W.D.Stevens</t>
-        </is>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="V19" t="b">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Exact</t>
-        </is>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0.14285715</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="b">
         <v>1</v>
       </c>
     </row>
